--- a/biology/Zoologie/Dolomedes_lizturnerae/Dolomedes_lizturnerae.xlsx
+++ b/biology/Zoologie/Dolomedes_lizturnerae/Dolomedes_lizturnerae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes lizturnerae est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes lizturnerae est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Tasmanie en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Tasmanie en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 5,76 mm de long sur 4,88 mm et l'abdomen 4,32 mm de long sur 3,40 mm et la carapace de la femelle paratype mesure 7,17 mm de long sur 5,83 mm et l'abdomen 6,67 mm de long sur 3,17 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 5,76 mm de long sur 4,88 mm et l'abdomen 4,32 mm de long sur 3,40 mm et la carapace de la femelle paratype mesure 7,17 mm de long sur 5,83 mm et l'abdomen 6,67 mm de long sur 3,17 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Elizabeth Turner[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Elizabeth Turner.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Hebron, 2018 : A review of the water spider family Pisauridae in Australia and New Caledonia with descriptions of four new genera and 23 new species. Memoirs of the Queensland Museum, Nature, vol. 60, p. 233-381 (texte intégral).</t>
         </is>
